--- a/legislator/property/output/normal/洪秀柱_2012-04-30_財產申報表_tmp31791.xlsx
+++ b/legislator/property/output/normal/洪秀柱_2012-04-30_財產申報表_tmp31791.xlsx
@@ -19,9 +19,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市中正區臨沂段四小段03180002地號</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>洪秀柱</t>
+  </si>
+  <si>
+    <t>93年01月02日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年自用房屋之坐落基地）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp31791</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,79 +114,40 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市中正區臨沂段四小段 0318-0002 地號</t>
-  </si>
-  <si>
-    <t>土 地</t>
-  </si>
-  <si>
-    <t>坐</t>
-  </si>
-  <si>
-    <t>4分之1</t>
-  </si>
-  <si>
-    <t>落</t>
-  </si>
-  <si>
-    <t>洪秀柱</t>
-  </si>
-  <si>
-    <t>面積（平方 公尺 ）</t>
-  </si>
-  <si>
-    <t>93年01月 02日</t>
-  </si>
-  <si>
-    <t>權利範圍 (持分）</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年’自 用房屋之坐落 基地）</t>
+    <t>臺北市中正區臨沂段四小段00711000建號</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>建物標</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>示</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>變</t>
+  </si>
+  <si>
+    <t>93年01月02H</t>
+  </si>
+  <si>
+    <t>動</t>
+  </si>
+  <si>
+    <t>情</t>
   </si>
   <si>
     <t>變動時間</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市中正區臨沂段四小段 00711-000 建號</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>面積（平方 公尺）</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>93年01月 02 H</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
-    <t>情</t>
-  </si>
-  <si>
-    <t>(超過五年,自 用房屋）</t>
+    <t>(超過五年自用房屋）</t>
   </si>
   <si>
     <t>變動原因</t>
@@ -147,13 +180,13 @@
     <t>臺灣銀行館前分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行城中分 行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行東門分 行</t>
-  </si>
-  <si>
-    <t>台北市士林區農會士林本 會</t>
+    <t>台北富邦商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行東門分行</t>
+  </si>
+  <si>
+    <t>台北市士林區農會士林本會</t>
   </si>
   <si>
     <t>永豐商業銀行台北分行</t>
@@ -243,10 +276,10 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>臺灣土地銀行新莊分行 新北市新莊區思源路</t>
-  </si>
-  <si>
-    <t>100年10月 26日</t>
+    <t>臺灣土地銀行新莊分行新北市新莊區思源路</t>
+  </si>
+  <si>
+    <t>100年10月26日</t>
   </si>
 </sst>
 </file>
@@ -605,13 +638,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,57 +666,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>290</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2">
+        <v>546</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
         <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -701,107 +750,107 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>169.63</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -819,39 +868,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -860,19 +909,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -881,19 +930,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -902,19 +951,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -923,19 +972,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -944,19 +993,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2">
         <v>2.64</v>
@@ -967,19 +1016,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2">
         <v>100225</v>
@@ -990,19 +1039,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
+        <v>54</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1024,39 +1073,39 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E2" s="2">
         <v>10000</v>
@@ -1065,7 +1114,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2">
         <v>100000</v>
@@ -1086,69 +1135,69 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1166,45 +1215,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2">
         <v>12729863</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/洪秀柱_2012-04-30_財產申報表_tmp31791.xlsx
+++ b/legislator/property/output/normal/洪秀柱_2012-04-30_財產申報表_tmp31791.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -63,93 +63,63 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市中正區臨沂段四小段03180002地號</t>
-  </si>
-  <si>
-    <t>4分之1</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>臺北市中正區臨沂段四小段00711000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>洪秀柱</t>
   </si>
   <si>
-    <t>93年01月02日</t>
+    <t>93年01月02H</t>
   </si>
   <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>(超過五年自用房屋之坐落基地）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>tmp31791</t>
-  </si>
-  <si>
-    <t>建物標示</t>
+    <t>(超過五年自用房屋）</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>建物標</t>
+  </si>
+  <si>
+    <t>物</t>
+  </si>
+  <si>
+    <t>示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
   </si>
   <si>
+    <t>變</t>
+  </si>
+  <si>
     <t>權利範圍(持分）</t>
   </si>
   <si>
+    <t>動</t>
+  </si>
+  <si>
     <t>所有權人</t>
   </si>
   <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市中正區臨沂段四小段00711000建號</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>93年01月02H</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
     <t>情</t>
   </si>
   <si>
     <t>變動時間</t>
   </si>
   <si>
-    <t>(超過五年自用房屋）</t>
-  </si>
-  <si>
     <t>變動原因</t>
   </si>
   <si>
@@ -159,27 +129,15 @@
     <t>變動時之價額</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺灣銀行館前分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>台北富邦商業銀行城中分行</t>
   </si>
   <si>
@@ -195,60 +153,30 @@
     <t>臺灣土地銀行新莊分行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
-    <t>名稱</t>
-  </si>
-  <si>
-    <t>受託投資機構</t>
-  </si>
-  <si>
-    <t>單位數</t>
-  </si>
-  <si>
-    <t>票面價額(單位淨值）</t>
-  </si>
-  <si>
-    <t>外幣幣別</t>
-  </si>
-  <si>
     <t>國民基金</t>
   </si>
   <si>
     <t>兆豐國際證券</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
     <t>全球人壽</t>
   </si>
   <si>
+    <t>全球人壽儲蓄終身壽險</t>
+  </si>
+  <si>
     <t>臺銀人壽</t>
   </si>
   <si>
     <t>富邦人壽</t>
   </si>
   <si>
-    <t>全球人壽儲蓄終身壽險</t>
-  </si>
-  <si>
     <t>臺銀人壽美利人生萬能保險</t>
   </si>
   <si>
@@ -256,21 +184,6 @@
   </si>
   <si>
     <t>富邦人壽美元儲蓄險</t>
-  </si>
-  <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -638,13 +551,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,52 +600,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>290</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2">
-        <v>546</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -750,107 +622,80 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>169.63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2">
-        <v>169.63</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -860,7 +705,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -868,193 +713,170 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>2609453</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>2609453</v>
+        <v>13726</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>13726</v>
+        <v>1138814</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>1138814</v>
+        <v>241298</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>241298</v>
+        <v>1650005</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.64</v>
+      </c>
       <c r="G6" s="2">
-        <v>1650005</v>
+        <v>77.09</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>2.64</v>
+        <v>100225</v>
       </c>
       <c r="G7" s="2">
-        <v>77.09</v>
+        <v>2926570</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2">
-        <v>100225</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>2926570</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>54</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
         <v>13000</v>
       </c>
     </row>
@@ -1065,58 +887,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F1" s="1">
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>71</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="2">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="2">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1">
         <v>100000</v>
       </c>
     </row>
@@ -1127,7 +923,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1135,69 +931,55 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>88</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1207,53 +989,30 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="2:7">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>56</v>
+      </c>
+      <c r="E1" s="1">
+        <v>12729863</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>98</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="2">
-        <v>12729863</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/洪秀柱_2012-04-30_財產申報表_tmp31791.xlsx
+++ b/legislator/property/output/normal/洪秀柱_2012-04-30_財產申報表_tmp31791.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -69,64 +69,46 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市中正區臨沂段四小段03180002地號</t>
+  </si>
+  <si>
+    <t>4分之1</t>
+  </si>
+  <si>
+    <t>洪秀柱</t>
+  </si>
+  <si>
+    <t>93年01月02日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年自用房屋之坐落基地）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp31791</t>
+  </si>
+  <si>
     <t>臺北市中正區臨沂段四小段00711000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>洪秀柱</t>
-  </si>
-  <si>
     <t>93年01月02H</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>(超過五年自用房屋）</t>
-  </si>
-  <si>
-    <t>建</t>
-  </si>
-  <si>
-    <t>建物標</t>
-  </si>
-  <si>
-    <t>物</t>
-  </si>
-  <si>
-    <t>示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>變</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>動</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>情</t>
-  </si>
-  <si>
-    <t>變動時間</t>
-  </si>
-  <si>
-    <t>變動原因</t>
-  </si>
-  <si>
-    <t>形</t>
-  </si>
-  <si>
-    <t>變動時之價額</t>
   </si>
   <si>
     <t>臺灣銀行館前分行</t>
@@ -551,13 +533,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,6 +587,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>290</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>546</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>72.5</v>
       </c>
     </row>
   </sheetData>
@@ -614,88 +649,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
         <v>169.63</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>546</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>35</v>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>169.63</v>
       </c>
     </row>
   </sheetData>
@@ -705,7 +765,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -713,13 +773,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -731,152 +791,173 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>13726</v>
+        <v>2609453</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>1138814</v>
+        <v>13726</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>241298</v>
+        <v>1138814</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>1650005</v>
+        <v>241298</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2">
-        <v>2.64</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>77.09</v>
+        <v>1650005</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>100225</v>
+        <v>2.64</v>
       </c>
       <c r="G7" s="2">
-        <v>2926570</v>
+        <v>77.09</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100225</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2926570</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
         <v>13000</v>
       </c>
     </row>
@@ -887,21 +968,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1">
         <v>10000</v>
@@ -910,9 +991,35 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2">
         <v>100000</v>
       </c>
     </row>
@@ -923,7 +1030,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -931,10 +1038,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -942,13 +1049,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -956,13 +1063,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -970,15 +1077,29 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -989,29 +1110,52 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1">
         <v>12729863</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>94</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12729863</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/legislator/property/output/normal/洪秀柱_2012-04-30_財產申報表_tmp31791.xlsx
+++ b/legislator/property/output/normal/洪秀柱_2012-04-30_財產申報表_tmp31791.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>(超過五年自用房屋）</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>臺灣銀行館前分行</t>
@@ -731,7 +734,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -773,13 +776,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
@@ -794,13 +797,13 @@
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -815,13 +818,13 @@
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
@@ -836,13 +839,13 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
@@ -857,13 +860,13 @@
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -878,13 +881,13 @@
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -899,13 +902,13 @@
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -922,13 +925,13 @@
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -945,13 +948,13 @@
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -976,13 +979,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1">
         <v>10000</v>
@@ -991,7 +994,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1">
         <v>100000</v>
@@ -1002,13 +1005,13 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2">
         <v>10000</v>
@@ -1017,7 +1020,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2">
         <v>100000</v>
@@ -1038,10 +1041,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1052,10 +1055,10 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1066,10 +1069,10 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1080,10 +1083,10 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1094,10 +1097,10 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1118,19 +1121,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1">
         <v>12729863</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>20</v>
@@ -1141,19 +1144,19 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2">
         <v>12729863</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>

--- a/legislator/property/output/normal/洪秀柱_2012-04-30_財產申報表_tmp31791.xlsx
+++ b/legislator/property/output/normal/洪秀柱_2012-04-30_財產申報表_tmp31791.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -114,34 +114,46 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行館前分行</t>
   </si>
   <si>
+    <t>台北富邦商業銀行城中分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行東門分行</t>
+  </si>
+  <si>
+    <t>台北市士林區農會士林本會</t>
+  </si>
+  <si>
+    <t>永豐商業銀行台北分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行新莊分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>台北富邦商業銀行城中分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行東門分行</t>
-  </si>
-  <si>
-    <t>台北市士林區農會士林本會</t>
-  </si>
-  <si>
-    <t>永豐商業銀行台北分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行新莊分行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
     <t>美金</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>國民基金</t>
@@ -768,13 +780,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
@@ -785,183 +797,359 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>2609453</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>2609453</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>546</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>13726</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>546</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>1138814</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>546</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>241298</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2">
+        <v>546</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>1650005</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2">
+        <v>546</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="2">
-        <v>2.64</v>
-      </c>
-      <c r="G7" s="2">
         <v>77.09</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2">
+        <v>546</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="2">
-        <v>100225</v>
-      </c>
-      <c r="G8" s="2">
         <v>2926570</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2">
+        <v>546</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>13000</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2">
+        <v>546</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -979,13 +1167,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1">
         <v>10000</v>
@@ -994,7 +1182,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1">
         <v>100000</v>
@@ -1005,13 +1193,13 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2">
         <v>10000</v>
@@ -1020,7 +1208,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H2" s="2">
         <v>100000</v>
@@ -1041,10 +1229,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1055,10 +1243,10 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1069,10 +1257,10 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1083,10 +1271,10 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1097,10 +1285,10 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1121,19 +1309,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1">
         <v>12729863</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>20</v>
@@ -1144,19 +1332,19 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2">
         <v>12729863</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>

--- a/legislator/property/output/normal/洪秀柱_2012-04-30_財產申報表_tmp31791.xlsx
+++ b/legislator/property/output/normal/洪秀柱_2012-04-30_財產申報表_tmp31791.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="61">
   <si>
     <t>name</t>
   </si>
@@ -156,10 +156,22 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
     <t>國民基金</t>
   </si>
   <si>
     <t>兆豐國際證券</t>
+  </si>
+  <si>
+    <t>fund</t>
   </si>
   <si>
     <t>全球人壽</t>
@@ -1159,47 +1171,68 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1">
-        <v>10000</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2">
         <v>10000</v>
@@ -1212,6 +1245,27 @@
       </c>
       <c r="H2" s="2">
         <v>100000</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>546</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1229,10 +1283,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>18</v>
@@ -1243,10 +1297,10 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
@@ -1257,10 +1311,10 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
@@ -1271,10 +1325,10 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1285,10 +1339,10 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
@@ -1309,19 +1363,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1">
         <v>12729863</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>20</v>
@@ -1332,19 +1386,19 @@
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2">
         <v>12729863</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>

--- a/legislator/property/output/normal/洪秀柱_2012-04-30_財產申報表_tmp31791.xlsx
+++ b/legislator/property/output/normal/洪秀柱_2012-04-30_財產申報表_tmp31791.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="66">
   <si>
     <t>name</t>
   </si>
@@ -174,18 +174,21 @@
     <t>fund</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>全球人壽</t>
   </si>
   <si>
+    <t>臺銀人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
     <t>全球人壽儲蓄終身壽險</t>
   </si>
   <si>
-    <t>臺銀人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
     <t>臺銀人壽美利人生萬能保險</t>
   </si>
   <si>
@@ -195,6 +198,15 @@
     <t>富邦人壽美元儲蓄險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
@@ -202,6 +214,9 @@
   </si>
   <si>
     <t>100年10月26日</t>
+  </si>
+  <si>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -1275,38 +1290,80 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>546</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>82</v>
       </c>
@@ -1314,13 +1371,34 @@
         <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>546</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>83</v>
       </c>
@@ -1328,13 +1406,34 @@
         <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2">
+        <v>546</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>84</v>
       </c>
@@ -1342,10 +1441,31 @@
         <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2">
+        <v>546</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1355,53 +1475,95 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1">
-        <v>12729863</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2">
         <v>12729863</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>546</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
